--- a/Datos limpios/Pricing semanal/2025/Sorgo.xlsx
+++ b/Datos limpios/Pricing semanal/2025/Sorgo.xlsx
@@ -355,1540 +355,1929 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ANIO_OPERACION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>SEMANA_OPERACION</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SEMANA_INICIO</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CONTRATO</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>CONTRATO_RECTIFICACION</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CONTRATO_ANULACION</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CONTRATO_PRECIO_HECHO</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FIJACION</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>FIJACION_RECTIFICACION</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>FIJACION_ANULACION</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>FIJACIONES</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>PRODUCTO</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>2025</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>45658</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7013.35</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2016.92</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>9030.27</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6675.58</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>6675.58</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>15705.85</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>45663</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>26099.54</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>26099.54</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1499.08</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>1499.08</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>27598.62</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>45670</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>8275.82</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>30</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8245.82</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4354.72</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>4354.72</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>12600.54</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>45677</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>7669.97</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>200</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>7469.97</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4270</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>4270</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>11739.97</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>2025</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>45684</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>11510.88</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>11510.88</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>425</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>425</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>11935.88</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>45691</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>17933.76</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>760</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>17203.76</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2857.94</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>2857.94</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>20061.7</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>2025</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>45698</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>29036.68</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>390</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>29426.68</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1849.56</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>1849.56</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>31276.24</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>2025</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>45705</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>17498.77</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>230.64</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>550</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>17179.41</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>535.42</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>535.42</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>17714.83</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>2025</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>45712</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>38481.17</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>520</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>19.54</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>38981.63</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2059.86</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>2059.86</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>41041.49</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>2025</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>45719</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>23237.45</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>23237.45</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2235.96</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>2235.96</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>25473.41</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>2025</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>45726</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>33220.85</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2175.84</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>13.09</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>35383.60000000001</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1531.82</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>1531.82</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>36915.42000000001</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>2025</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>45733</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>49282.03</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>160</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>120</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>49322.03</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2301.01</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>2301.01</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>51623.04</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>2025</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>45740</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>21450.51</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>21450.51</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1600</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>1600</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>23050.51</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>2025</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>45747</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>34036.58</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>150</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>84</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>34102.58</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3576.44</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>3576.44</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>37679.02</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>2025</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>45754</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>24326.18</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>30</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>770</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>23586.18</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1593.75</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>90</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>1683.75</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>25269.93</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>45761</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>4706.18</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>600</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4106.18</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>432.0899999999999</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>432.0899999999999</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>4538.27</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>2025</v>
+      </c>
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="2">
         <v>45768</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>19682.15</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>205.65</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>30</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>19857.8</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1803.42</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>1803.42</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>21661.22</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>2025</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="2">
         <v>45775</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>18312.48</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>30</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>18342.48</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>900.17</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>900.17</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>19242.65</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>2025</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="2">
         <v>45782</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>35457.58</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>240</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>35697.58</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1906.18</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>1906.18</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>37603.76</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>2025</v>
+      </c>
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="2">
         <v>45789</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>25863.27</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>33.04</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>25896.31</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1146.3</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>1146.3</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>27042.61</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>2025</v>
+      </c>
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C22" s="2">
         <v>45796</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>27698.82</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>5248.12</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>32946.94</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1963.15</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>1963.15</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>34910.09</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>2025</v>
+      </c>
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C23" s="2">
         <v>45803</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>34323.71</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>100</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>246.31</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>34177.4</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>4730.01</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>4730.01</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>38907.41</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>2025</v>
+      </c>
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C24" s="2">
         <v>45810</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>50212.49</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>40</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>50172.49</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>3429.93</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>3429.93</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>53602.42</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>2025</v>
+      </c>
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C25" s="2">
         <v>45817</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>55629.25</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>330</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>530</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>55429.25</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2410.52</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>2410.52</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>57839.77</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>2025</v>
+      </c>
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C26" s="2">
         <v>45824</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>29526.28</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>480.75</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>150</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>29857.03</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1130</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>1130</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>30987.03</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>2025</v>
+      </c>
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C27" s="2">
         <v>45831</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>57744.65</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2690</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>173.4</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>60261.25</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2388.43</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>2388.43</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>62649.68</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>2025</v>
+      </c>
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C28" s="2">
         <v>45838</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>59030.57</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>760</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>6.609999999999999</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>59783.96</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>4284.66</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>4284.66</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>64068.62</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>2025</v>
+      </c>
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C29" s="2">
         <v>45845</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>37086.43</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>599.45</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>360</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>37325.88</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1270.41</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>1270.41</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>38596.29</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>2025</v>
+      </c>
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C30" s="2">
         <v>45852</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>35753.85</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1137.96</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>66</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>36825.81</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>8583.66</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>8583.66</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>45409.47</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>2025</v>
+      </c>
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="C31" s="2">
         <v>45859</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>29509.06</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>50.94</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1880</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>27680</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2354.66</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>2354.66</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>30034.66</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>2025</v>
+      </c>
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C32" s="2">
         <v>45866</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>32353.3</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>363.39</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>14.5</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>32702.19</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2499.56</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>324</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>2823.56</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>35525.75</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>2025</v>
+      </c>
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C33" s="2">
         <v>45873</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>49657.71</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>15086</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>64743.71</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>3448.5</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>3448.5</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>68192.20999999999</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>2025</v>
+      </c>
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C34" s="2">
         <v>45880</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>12536.67</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>268.1</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
       <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>12804.77</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>4229.67</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>69.5</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>580</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>3719.17</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>16523.94</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>2025</v>
+      </c>
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C35" s="2">
         <v>45887</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>16066.18</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>743.45</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>16809.63</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>4980.9</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>4980.9</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>21790.53</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>2025</v>
+      </c>
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="C36" s="2">
         <v>45894</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>11700.64</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>309.47</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>12010.11</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>3037.75</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>3037.75</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>15047.86</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>2025</v>
+      </c>
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="C37" s="2">
         <v>45901</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>16467.19</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>3115.16</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>390</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>19192.35</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>2474.12</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>2474.12</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>21666.47</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
+        <v>2025</v>
+      </c>
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="C38" s="2">
         <v>45908</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>17834.16</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>272.51</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>18106.67</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1731.97</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>1731.97</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>19838.64</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>2025</v>
+      </c>
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="C39" s="2">
         <v>45915</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>27726.47</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>457.21</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>942</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>27241.68</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>1665.5</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>1665.5</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>28907.18</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>2025</v>
+      </c>
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="C40" s="2">
         <v>45922</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>13461.63</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>2113.48</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>15575.11</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>1323.14</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <v>1323.14</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>16898.25</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>2025</v>
+      </c>
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="C41" s="2">
         <v>45929</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>26585.29</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>6554.11</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>671.5</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>32467.9</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>3036.55</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <v>3036.55</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>35504.45</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>2025</v>
+      </c>
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="C42" s="2">
         <v>45936</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>4340.14</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>31.24</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
       <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>4371.38</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>1409.91</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>1409.91</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>5781.29</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>2025</v>
+      </c>
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="C43" s="2">
         <v>45943</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>22180.73</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>500</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>21680.73</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>958.13</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>958.13</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>22638.86</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>2025</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45950</v>
+      </c>
+      <c r="D44">
+        <v>6430.42</v>
+      </c>
+      <c r="E44">
+        <v>34.35</v>
+      </c>
+      <c r="F44">
+        <v>33.98</v>
+      </c>
+      <c r="G44">
+        <v>6430.790000000001</v>
+      </c>
+      <c r="H44">
+        <v>1334</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1334</v>
+      </c>
+      <c r="L44">
+        <v>7764.790000000001</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>SORGO</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1897,8 +2286,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D6CA5EAACE9DA04D9E421A617A76D009" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bac5de4a034fee97af64ba5a2822cd53">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77131357-5c03-45fa-a80b-b9111bb46cb1" xmlns:ns3="d3f11db4-a96c-41b4-b8ec-902c72f52048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="027d3429df443898fbbc0b888682b5bf" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D6CA5EAACE9DA04D9E421A617A76D009" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="854b0670eee28d8fa271d4f22cb9c97d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77131357-5c03-45fa-a80b-b9111bb46cb1" xmlns:ns3="d3f11db4-a96c-41b4-b8ec-902c72f52048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b486ba09ce8a2fb19cc660d7edf32df4" ns2:_="" ns3:_="">
     <xsd:import namespace="77131357-5c03-45fa-a80b-b9111bb46cb1"/>
     <xsd:import namespace="d3f11db4-a96c-41b4-b8ec-902c72f52048"/>
     <xsd:element name="properties">
@@ -2179,13 +2568,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12F6B4EF-2ACC-4FFA-A6DE-3EBD350CC790}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71A9C4A-2E87-4DC3-87F5-110E040FBD14}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499DF1CC-E888-4BD6-8BD4-ED17D7663688}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D49BE33D-7470-4E65-8962-356E767C374F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A914EBB6-2643-49E2-886D-3210EC215806}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC169A61-EF5C-45AB-8932-C6C93C760543}"/>
 </file>